--- a/src/main/webapp/WEB-INF/templates/[Request]EstimateRequest.xlsx
+++ b/src/main/webapp/WEB-INF/templates/[Request]EstimateRequest.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yongs\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="5685"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9075"/>
   </bookViews>
   <sheets>
     <sheet name="客户询盘单 上海-韩国" sheetId="3" r:id="rId1"/>
@@ -108,11 +113,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -132,7 +137,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -146,7 +151,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -238,7 +243,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -284,12 +289,6 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -299,9 +298,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -571,7 +585,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -582,10 +596,10 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H2"/>
+      <selection activeCell="E5" sqref="E5:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.125" defaultRowHeight="23.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="19.125" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.75" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
@@ -596,7 +610,7 @@
     <col min="7" max="8" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="51" customHeight="1">
+    <row r="1" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
@@ -608,11 +622,11 @@
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="4"/>
       <c r="D2" s="1" t="s">
         <v>1</v>
@@ -624,12 +638,12 @@
       <c r="G2" s="13"/>
       <c r="H2" s="14"/>
     </row>
-    <row r="3" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="4"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
@@ -637,14 +651,14 @@
       <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16"/>
-    </row>
-    <row r="4" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A4" s="18" t="s">
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+    </row>
+    <row r="4" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="4"/>
       <c r="D4" s="1" t="s">
         <v>12</v>
@@ -653,24 +667,24 @@
       <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16"/>
-    </row>
-    <row r="5" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A5" s="18" t="s">
+      <c r="G4" s="21"/>
+      <c r="H4" s="22"/>
+    </row>
+    <row r="5" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="4"/>
       <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-    </row>
-    <row r="6" spans="1:8" s="8" customFormat="1" ht="23.25" customHeight="1">
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:8" s="8" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -696,7 +710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="23.25" customHeight="1">
+    <row r="7" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -708,7 +722,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="23.25" customHeight="1">
+    <row r="8" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>2</v>
       </c>
@@ -720,7 +734,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="23.25" customHeight="1">
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -732,7 +746,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="23.25" customHeight="1">
+    <row r="10" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>4</v>
       </c>
@@ -744,7 +758,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" ht="23.25" customHeight="1">
+    <row r="11" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>5</v>
       </c>
@@ -756,7 +770,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="23.25" customHeight="1">
+    <row r="12" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -768,7 +782,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="23.25" customHeight="1">
+    <row r="13" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>7</v>
       </c>
@@ -780,7 +794,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="23.25" customHeight="1">
+    <row r="14" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>8</v>
       </c>
@@ -792,7 +806,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="23.25" customHeight="1">
+    <row r="15" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>9</v>
       </c>
@@ -804,7 +818,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="23.25" customHeight="1">
+    <row r="16" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>10</v>
       </c>
@@ -816,7 +830,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="23.25" customHeight="1">
+    <row r="17" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>11</v>
       </c>
@@ -828,7 +842,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="23.25" customHeight="1">
+    <row r="18" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>12</v>
       </c>
@@ -840,7 +854,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="23.25" customHeight="1">
+    <row r="19" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>13</v>
       </c>
@@ -852,7 +866,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="23.25" customHeight="1">
+    <row r="20" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>14</v>
       </c>
@@ -864,7 +878,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" ht="23.25" customHeight="1">
+    <row r="21" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>15</v>
       </c>
@@ -876,7 +890,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" ht="45.75" customHeight="1">
+    <row r="22" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
@@ -904,6 +918,11 @@
     <mergeCell ref="A5:B5"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 E4">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
